--- a/examples/example.xlsx
+++ b/examples/example.xlsx
@@ -11,7 +11,7 @@
     <sheet name="example" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'example'!$A$1:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'example'!$A$1:$B$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
@@ -159,7 +159,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -187,15 +187,25 @@
     <row collapsed="" customFormat="false" customHeight="" hidden="" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>Value1</t>
         </is>
       </c>
       <c r="B2" s="5" t="n">
-        <v>43799.659016204</v>
+        <v>43799.668784722</v>
+      </c>
+    </row>
+    <row collapsed="" customFormat="false" customHeight="" hidden="" ht="12.1" outlineLevel="0" r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>Value2</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>43799.668784722</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B2"/>
+  <autoFilter ref="A1:B3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.5" right="0.5" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>

--- a/examples/example.xlsx
+++ b/examples/example.xlsx
@@ -184,24 +184,24 @@
         </is>
       </c>
     </row>
-    <row collapsed="" customFormat="false" customHeight="" hidden="" ht="12.1" outlineLevel="0" r="2">
+    <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="30" outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
           <t>Value1</t>
         </is>
       </c>
       <c r="B2" s="5" t="n">
-        <v>43799.668784722</v>
+        <v>43799.689259259</v>
       </c>
     </row>
-    <row collapsed="" customFormat="false" customHeight="" hidden="" ht="12.1" outlineLevel="0" r="3">
+    <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="30" outlineLevel="0" r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
           <t>Value2</t>
         </is>
       </c>
       <c r="B3" s="5" t="n">
-        <v>43799.668784722</v>
+        <v>43799.689259259</v>
       </c>
     </row>
   </sheetData>

--- a/examples/example.xlsx
+++ b/examples/example.xlsx
@@ -134,8 +134,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="166" xfId="0">
@@ -187,11 +187,11 @@
     <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="30" outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>Value1</t>
+          <t>Value1serg sergsergse rgsse rgsergsergserg se</t>
         </is>
       </c>
       <c r="B2" s="5" t="n">
-        <v>43799.689259259</v>
+        <v>43801.730393519</v>
       </c>
     </row>
     <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="30" outlineLevel="0" r="3">
@@ -201,7 +201,7 @@
         </is>
       </c>
       <c r="B3" s="5" t="n">
-        <v>43799.689259259</v>
+        <v>43801.730393519</v>
       </c>
     </row>
   </sheetData>
